--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -148,10 +148,10 @@
     <t>东波分理处</t>
   </si>
   <si>
-    <t>益江分理处</t>
-  </si>
-  <si>
-    <t>南新分理处</t>
+    <t>益江支行</t>
+  </si>
+  <si>
+    <t>南新支行</t>
   </si>
   <si>
     <t>凌兆分理处</t>
@@ -598,19 +598,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -640,6 +640,9 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -647,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -741,16 +744,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -781,19 +784,19 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -684,16 +684,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -978,6 +978,9 @@
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22">
         <v>0</v>
       </c>
@@ -985,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1019,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1028,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1385,16 +1388,16 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>13.67</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -641,19 +641,19 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -683,17 +683,20 @@
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -784,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -793,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -826,17 +829,20 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
       <c r="D15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -933,19 +939,19 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1022,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1031,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1104,6 +1110,9 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28">
         <v>0</v>
       </c>
@@ -1111,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -558,16 +558,16 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>14.67</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -558,16 +558,16 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>20.33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -558,16 +558,16 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1214,16 +1214,16 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -1194,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -558,16 +558,16 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G2">
-        <v>24.33</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -641,19 +641,19 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -706,6 +706,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -713,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -747,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -916,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -925,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1050,6 +1053,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1057,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1194,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1214,16 +1220,16 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1233,6 +1239,9 @@
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34">
         <v>0</v>
       </c>
@@ -1240,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -578,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -750,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -799,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1034,16 +1034,16 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1322,6 +1322,9 @@
       <c r="B38">
         <v>1</v>
       </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -1329,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1445,6 +1448,9 @@
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44">
         <v>0</v>
       </c>
@@ -1452,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -578,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -706,9 +706,6 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -716,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -750,16 +747,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -790,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -799,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -919,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -928,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1053,9 +1050,6 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1063,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1200,16 +1194,16 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1239,9 +1233,6 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
       <c r="D34">
         <v>0</v>
       </c>
@@ -1249,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1322,9 +1313,6 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -1332,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1448,9 +1436,6 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44">
         <v>0</v>
       </c>
@@ -1458,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">

--- a/result/鑫e贷授信-B款完成情况.xlsx
+++ b/result/鑫e贷授信-B款完成情况.xlsx
@@ -578,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -650,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -706,6 +706,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -713,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -747,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -787,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -796,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -916,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -925,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1050,6 +1053,9 @@
       <c r="B25">
         <v>1</v>
       </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25">
         <v>0</v>
       </c>
@@ -1057,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1194,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1233,6 +1239,9 @@
       <c r="B34">
         <v>1</v>
       </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34">
         <v>0</v>
       </c>
@@ -1240,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1313,6 +1322,9 @@
       <c r="B38">
         <v>1</v>
       </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38">
         <v>0</v>
       </c>
@@ -1320,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1353,6 +1365,9 @@
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40">
         <v>0</v>
       </c>
@@ -1360,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1436,6 +1451,9 @@
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44">
         <v>0</v>
       </c>
@@ -1443,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
